--- a/詳細設計/入出力ファイルフォーマット.xlsx
+++ b/詳細設計/入出力ファイルフォーマット.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20407"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Develop\SoundValid\v2.0.0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Develop\SoundValid\v2.0.0\詳細設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60F9D68D-03B2-4FE1-88F5-E0C53F90F8ED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="18640" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="18640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="変更履歴" sheetId="4" r:id="rId1"/>
     <sheet name="設定ファイルフォーマット" sheetId="1" r:id="rId2"/>
     <sheet name="正常データ保存ファイルフォーマット" sheetId="5" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1255,19 +1256,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="11">
     <numFmt numFmtId="176" formatCode="#,##0.0"/>
-    <numFmt numFmtId="179" formatCode="yyyy/mm/dd"/>
-    <numFmt numFmtId="180" formatCode="#,##0;\-#,##0;&quot;-&quot;"/>
-    <numFmt numFmtId="181" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
-    <numFmt numFmtId="182" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
-    <numFmt numFmtId="183" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="184" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="185" formatCode="0_);\(0\)"/>
-    <numFmt numFmtId="186" formatCode="&quot;$&quot;#,##0.00;\(&quot;$&quot;#,##0.00\)"/>
-    <numFmt numFmtId="187" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="188" formatCode="0.00000%"/>
+    <numFmt numFmtId="177" formatCode="yyyy/mm/dd"/>
+    <numFmt numFmtId="178" formatCode="#,##0;\-#,##0;&quot;-&quot;"/>
+    <numFmt numFmtId="179" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
+    <numFmt numFmtId="180" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="181" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="182" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="183" formatCode="0_);\(0\)"/>
+    <numFmt numFmtId="184" formatCode="&quot;$&quot;#,##0.00;\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="185" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="186" formatCode="0.00000%"/>
   </numFmts>
   <fonts count="36">
     <font>
@@ -2049,7 +2050,7 @@
     <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="26" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="178" fontId="26" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2058,8 +2059,8 @@
     </xf>
     <xf numFmtId="38" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="40" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="181" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="182" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="179" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="180" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -2139,45 +2140,45 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="183" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="184" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="181" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="182" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
-    <xf numFmtId="185" fontId="31" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="186" fontId="32" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="183" fontId="31" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="184" fontId="32" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="186" fontId="32" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="184" fontId="32" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="185" fontId="31" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="183" fontId="31" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="186" fontId="32" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="187" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="184" fontId="32" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="185" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="185" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="183" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="14" fontId="26" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="186" fontId="32" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="185" fontId="31" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="186" fontId="32" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="184" fontId="32" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="183" fontId="31" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="184" fontId="32" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="185" fontId="31" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="186" fontId="32" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="185" fontId="31" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="186" fontId="32" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="183" fontId="31" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="184" fontId="32" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="183" fontId="31" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="184" fontId="32" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="185" fontId="31" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="188" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="183" fontId="31" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="186" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="187" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="185" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="186" fontId="32" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="185" fontId="31" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="186" fontId="32" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="184" fontId="32" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="183" fontId="31" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="184" fontId="32" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
-    <xf numFmtId="185" fontId="31" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
+    <xf numFmtId="183" fontId="31" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="49" fontId="26" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
@@ -2327,6 +2328,99 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="24" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2348,69 +2442,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="5" fillId="24" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="27" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="36" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="179" fontId="5" fillId="0" borderId="26" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2429,149 +2469,110 @@
     <xf numFmtId="0" fontId="2" fillId="25" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="102">
-    <cellStyle name="??" xfId="55"/>
-    <cellStyle name="?? [0.00]_PERSONAL" xfId="56"/>
-    <cellStyle name="???? [0.00]_PERSONAL" xfId="57"/>
-    <cellStyle name="????_PERSONAL" xfId="58"/>
-    <cellStyle name="??_PERSONAL" xfId="59"/>
-    <cellStyle name="20% - アクセント 1 2" xfId="2"/>
-    <cellStyle name="20% - アクセント 2 2" xfId="3"/>
-    <cellStyle name="20% - アクセント 3 2" xfId="4"/>
-    <cellStyle name="20% - アクセント 4 2" xfId="5"/>
-    <cellStyle name="20% - アクセント 5 2" xfId="6"/>
-    <cellStyle name="20% - アクセント 6 2" xfId="7"/>
-    <cellStyle name="40% - アクセント 1 2" xfId="8"/>
-    <cellStyle name="40% - アクセント 2 2" xfId="9"/>
-    <cellStyle name="40% - アクセント 3 2" xfId="10"/>
-    <cellStyle name="40% - アクセント 4 2" xfId="11"/>
-    <cellStyle name="40% - アクセント 5 2" xfId="12"/>
-    <cellStyle name="40% - アクセント 6 2" xfId="13"/>
-    <cellStyle name="60% - アクセント 1 2" xfId="14"/>
-    <cellStyle name="60% - アクセント 2 2" xfId="15"/>
-    <cellStyle name="60% - アクセント 3 2" xfId="16"/>
-    <cellStyle name="60% - アクセント 4 2" xfId="17"/>
-    <cellStyle name="60% - アクセント 5 2" xfId="18"/>
-    <cellStyle name="60% - アクセント 6 2" xfId="19"/>
-    <cellStyle name="Calc Currency (0)" xfId="20"/>
-    <cellStyle name="Calc Currency (2)" xfId="60"/>
-    <cellStyle name="Calc Percent (0)" xfId="61"/>
-    <cellStyle name="Calc Percent (1)" xfId="62"/>
-    <cellStyle name="Calc Percent (2)" xfId="63"/>
-    <cellStyle name="Calc Units (0)" xfId="64"/>
-    <cellStyle name="Calc Units (1)" xfId="65"/>
-    <cellStyle name="Calc Units (2)" xfId="66"/>
-    <cellStyle name="Comma [0]_#6 Temps &amp; Contractors" xfId="67"/>
-    <cellStyle name="Comma [00]" xfId="68"/>
-    <cellStyle name="Comma_#6 Temps &amp; Contractors" xfId="69"/>
-    <cellStyle name="Currency [0]_#6 Temps &amp; Contractors" xfId="70"/>
-    <cellStyle name="Currency [00]" xfId="71"/>
-    <cellStyle name="Currency_#6 Temps &amp; Contractors" xfId="72"/>
-    <cellStyle name="Date Short" xfId="73"/>
-    <cellStyle name="Enter Currency (0)" xfId="74"/>
-    <cellStyle name="Enter Currency (2)" xfId="75"/>
-    <cellStyle name="Enter Units (0)" xfId="76"/>
-    <cellStyle name="Enter Units (1)" xfId="77"/>
-    <cellStyle name="Enter Units (2)" xfId="78"/>
-    <cellStyle name="Header1" xfId="21"/>
-    <cellStyle name="Header2" xfId="22"/>
-    <cellStyle name="Link Currency (0)" xfId="79"/>
-    <cellStyle name="Link Currency (2)" xfId="80"/>
-    <cellStyle name="Link Units (0)" xfId="81"/>
-    <cellStyle name="Link Units (1)" xfId="82"/>
-    <cellStyle name="Link Units (2)" xfId="83"/>
-    <cellStyle name="Milliers [0]_AR1194" xfId="23"/>
-    <cellStyle name="Milliers_AR1194" xfId="24"/>
-    <cellStyle name="Mon騁aire [0]_AR1194" xfId="25"/>
-    <cellStyle name="Mon騁aire_AR1194" xfId="26"/>
-    <cellStyle name="Normal - Style1" xfId="84"/>
-    <cellStyle name="Normal_# 41-Market &amp;Trends" xfId="85"/>
-    <cellStyle name="Percent [0]" xfId="86"/>
-    <cellStyle name="Percent [00]" xfId="87"/>
-    <cellStyle name="Percent_#6 Temps &amp; Contractors" xfId="88"/>
-    <cellStyle name="PrePop Currency (0)" xfId="89"/>
-    <cellStyle name="PrePop Currency (2)" xfId="90"/>
-    <cellStyle name="PrePop Units (0)" xfId="91"/>
-    <cellStyle name="PrePop Units (1)" xfId="92"/>
-    <cellStyle name="PrePop Units (2)" xfId="93"/>
-    <cellStyle name="Text Indent A" xfId="94"/>
-    <cellStyle name="Text Indent B" xfId="95"/>
-    <cellStyle name="Text Indent C" xfId="96"/>
-    <cellStyle name="アクセント 1 2" xfId="27"/>
-    <cellStyle name="アクセント 2 2" xfId="28"/>
-    <cellStyle name="アクセント 3 2" xfId="29"/>
-    <cellStyle name="アクセント 4 2" xfId="30"/>
-    <cellStyle name="アクセント 5 2" xfId="31"/>
-    <cellStyle name="アクセント 6 2" xfId="32"/>
-    <cellStyle name="スタイル 1" xfId="97"/>
-    <cellStyle name="タイトル 2" xfId="33"/>
-    <cellStyle name="チェック セル 2" xfId="34"/>
-    <cellStyle name="どちらでもない 2" xfId="35"/>
+    <cellStyle name="??" xfId="55" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="?? [0.00]_PERSONAL" xfId="56" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="???? [0.00]_PERSONAL" xfId="57" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="????_PERSONAL" xfId="58" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="??_PERSONAL" xfId="59" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="20% - アクセント 1 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="20% - アクセント 2 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="20% - アクセント 3 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="20% - アクセント 4 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="20% - アクセント 5 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="20% - アクセント 6 2" xfId="7" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="40% - アクセント 1 2" xfId="8" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="40% - アクセント 2 2" xfId="9" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="40% - アクセント 3 2" xfId="10" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="40% - アクセント 4 2" xfId="11" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="40% - アクセント 5 2" xfId="12" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="40% - アクセント 6 2" xfId="13" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="60% - アクセント 1 2" xfId="14" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="60% - アクセント 2 2" xfId="15" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="60% - アクセント 3 2" xfId="16" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="60% - アクセント 4 2" xfId="17" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="60% - アクセント 5 2" xfId="18" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="60% - アクセント 6 2" xfId="19" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="Calc Currency (0)" xfId="20" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="Calc Currency (2)" xfId="60" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="Calc Percent (0)" xfId="61" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="Calc Percent (1)" xfId="62" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="Calc Percent (2)" xfId="63" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="Calc Units (0)" xfId="64" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="Calc Units (1)" xfId="65" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
+    <cellStyle name="Calc Units (2)" xfId="66" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
+    <cellStyle name="Comma [0]_#6 Temps &amp; Contractors" xfId="67" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
+    <cellStyle name="Comma [00]" xfId="68" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="Comma_#6 Temps &amp; Contractors" xfId="69" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="Currency [0]_#6 Temps &amp; Contractors" xfId="70" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
+    <cellStyle name="Currency [00]" xfId="71" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
+    <cellStyle name="Currency_#6 Temps &amp; Contractors" xfId="72" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
+    <cellStyle name="Date Short" xfId="73" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="Enter Currency (0)" xfId="74" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
+    <cellStyle name="Enter Currency (2)" xfId="75" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="Enter Units (0)" xfId="76" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
+    <cellStyle name="Enter Units (1)" xfId="77" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
+    <cellStyle name="Enter Units (2)" xfId="78" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
+    <cellStyle name="Header1" xfId="21" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
+    <cellStyle name="Header2" xfId="22" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
+    <cellStyle name="Link Currency (0)" xfId="79" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
+    <cellStyle name="Link Currency (2)" xfId="80" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
+    <cellStyle name="Link Units (0)" xfId="81" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
+    <cellStyle name="Link Units (1)" xfId="82" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
+    <cellStyle name="Link Units (2)" xfId="83" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="Milliers [0]_AR1194" xfId="23" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
+    <cellStyle name="Milliers_AR1194" xfId="24" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
+    <cellStyle name="Mon騁aire [0]_AR1194" xfId="25" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
+    <cellStyle name="Mon騁aire_AR1194" xfId="26" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
+    <cellStyle name="Normal - Style1" xfId="84" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
+    <cellStyle name="Normal_# 41-Market &amp;Trends" xfId="85" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
+    <cellStyle name="Percent [0]" xfId="86" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
+    <cellStyle name="Percent [00]" xfId="87" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
+    <cellStyle name="Percent_#6 Temps &amp; Contractors" xfId="88" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
+    <cellStyle name="PrePop Currency (0)" xfId="89" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
+    <cellStyle name="PrePop Currency (2)" xfId="90" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
+    <cellStyle name="PrePop Units (0)" xfId="91" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
+    <cellStyle name="PrePop Units (1)" xfId="92" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
+    <cellStyle name="PrePop Units (2)" xfId="93" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
+    <cellStyle name="Text Indent A" xfId="94" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
+    <cellStyle name="Text Indent B" xfId="95" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
+    <cellStyle name="Text Indent C" xfId="96" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
+    <cellStyle name="アクセント 1 2" xfId="27" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
+    <cellStyle name="アクセント 2 2" xfId="28" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
+    <cellStyle name="アクセント 3 2" xfId="29" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
+    <cellStyle name="アクセント 4 2" xfId="30" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
+    <cellStyle name="アクセント 5 2" xfId="31" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
+    <cellStyle name="アクセント 6 2" xfId="32" xr:uid="{00000000-0005-0000-0000-000048000000}"/>
+    <cellStyle name="スタイル 1" xfId="97" xr:uid="{00000000-0005-0000-0000-000049000000}"/>
+    <cellStyle name="タイトル 2" xfId="33" xr:uid="{00000000-0005-0000-0000-00004A000000}"/>
+    <cellStyle name="チェック セル 2" xfId="34" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
+    <cellStyle name="どちらでもない 2" xfId="35" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
     <cellStyle name="ハイパーリンク" xfId="36" builtinId="8"/>
-    <cellStyle name="ハイパーリンク 2" xfId="98"/>
-    <cellStyle name="メモ 2" xfId="37"/>
-    <cellStyle name="リンク セル 2" xfId="38"/>
-    <cellStyle name="悪い 2" xfId="39"/>
-    <cellStyle name="計算 2" xfId="40"/>
-    <cellStyle name="警告文 2" xfId="41"/>
-    <cellStyle name="見出し 1 2" xfId="42"/>
-    <cellStyle name="見出し 2 2" xfId="43"/>
-    <cellStyle name="見出し 3 2" xfId="44"/>
-    <cellStyle name="見出し 4 2" xfId="45"/>
-    <cellStyle name="集計 2" xfId="46"/>
-    <cellStyle name="出力 2" xfId="47"/>
-    <cellStyle name="説明文 2" xfId="48"/>
-    <cellStyle name="入力 2" xfId="49"/>
+    <cellStyle name="ハイパーリンク 2" xfId="98" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
+    <cellStyle name="メモ 2" xfId="37" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
+    <cellStyle name="リンク セル 2" xfId="38" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
+    <cellStyle name="悪い 2" xfId="39" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
+    <cellStyle name="計算 2" xfId="40" xr:uid="{00000000-0005-0000-0000-000052000000}"/>
+    <cellStyle name="警告文 2" xfId="41" xr:uid="{00000000-0005-0000-0000-000053000000}"/>
+    <cellStyle name="見出し 1 2" xfId="42" xr:uid="{00000000-0005-0000-0000-000054000000}"/>
+    <cellStyle name="見出し 2 2" xfId="43" xr:uid="{00000000-0005-0000-0000-000055000000}"/>
+    <cellStyle name="見出し 3 2" xfId="44" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
+    <cellStyle name="見出し 4 2" xfId="45" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
+    <cellStyle name="集計 2" xfId="46" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
+    <cellStyle name="出力 2" xfId="47" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
+    <cellStyle name="説明文 2" xfId="48" xr:uid="{00000000-0005-0000-0000-00005A000000}"/>
+    <cellStyle name="入力 2" xfId="49" xr:uid="{00000000-0005-0000-0000-00005B000000}"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 2" xfId="50"/>
-    <cellStyle name="標準 3" xfId="51"/>
-    <cellStyle name="標準 4" xfId="99"/>
-    <cellStyle name="標準 4 2" xfId="54"/>
-    <cellStyle name="標準 5" xfId="100"/>
-    <cellStyle name="標準 5 2" xfId="101"/>
-    <cellStyle name="標準 6" xfId="1"/>
-    <cellStyle name="未定義" xfId="52"/>
-    <cellStyle name="良い 2" xfId="53"/>
+    <cellStyle name="標準 2" xfId="50" xr:uid="{00000000-0005-0000-0000-00005D000000}"/>
+    <cellStyle name="標準 3" xfId="51" xr:uid="{00000000-0005-0000-0000-00005E000000}"/>
+    <cellStyle name="標準 4" xfId="99" xr:uid="{00000000-0005-0000-0000-00005F000000}"/>
+    <cellStyle name="標準 4 2" xfId="54" xr:uid="{00000000-0005-0000-0000-000060000000}"/>
+    <cellStyle name="標準 5" xfId="100" xr:uid="{00000000-0005-0000-0000-000061000000}"/>
+    <cellStyle name="標準 5 2" xfId="101" xr:uid="{00000000-0005-0000-0000-000062000000}"/>
+    <cellStyle name="標準 6" xfId="1" xr:uid="{00000000-0005-0000-0000-000063000000}"/>
+    <cellStyle name="未定義" xfId="52" xr:uid="{00000000-0005-0000-0000-000064000000}"/>
+    <cellStyle name="良い 2" xfId="53" xr:uid="{00000000-0005-0000-0000-000065000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2603,7 +2604,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="テキスト ボックス 1"/>
+        <xdr:cNvPr id="2" name="テキスト ボックス 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2711,7 +2718,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="テキスト ボックス 2"/>
+        <xdr:cNvPr id="3" name="テキスト ボックス 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3256,7 +3269,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="テキスト ボックス 1"/>
+        <xdr:cNvPr id="2" name="テキスト ボックス 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3447,7 +3466,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="テキスト ボックス 2"/>
+        <xdr:cNvPr id="3" name="テキスト ボックス 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4785,7 +4810,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E48"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -4800,458 +4825,458 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="73" t="s">
         <v>123</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="52" t="s">
+      <c r="A2" s="45" t="s">
         <v>124</v>
       </c>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="46" t="s">
         <v>125</v>
       </c>
-      <c r="C2" s="66" t="s">
+      <c r="C2" s="74" t="s">
         <v>126</v>
       </c>
-      <c r="D2" s="67"/>
-      <c r="E2" s="52" t="s">
+      <c r="D2" s="75"/>
+      <c r="E2" s="45" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="54">
+      <c r="A3" s="47">
         <v>1</v>
       </c>
-      <c r="B3" s="64">
+      <c r="B3" s="57">
         <v>45240</v>
       </c>
-      <c r="C3" s="55" t="s">
+      <c r="C3" s="48" t="s">
         <v>130</v>
       </c>
-      <c r="D3" s="63" t="s">
+      <c r="D3" s="56" t="s">
         <v>128</v>
       </c>
-      <c r="E3" s="56" t="s">
+      <c r="E3" s="49" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="57">
+      <c r="A4" s="50">
         <v>2</v>
       </c>
-      <c r="B4" s="64">
+      <c r="B4" s="57">
         <v>45246</v>
       </c>
-      <c r="C4" s="60" t="s">
+      <c r="C4" s="53" t="s">
         <v>132</v>
       </c>
-      <c r="D4" s="63" t="s">
+      <c r="D4" s="56" t="s">
         <v>128</v>
       </c>
-      <c r="E4" s="56" t="s">
+      <c r="E4" s="49" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="57" t="s">
+      <c r="A5" s="50" t="s">
         <v>129</v>
       </c>
-      <c r="B5" s="58"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="62"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="55"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="57" t="s">
+      <c r="A6" s="50" t="s">
         <v>129</v>
       </c>
-      <c r="B6" s="58"/>
-      <c r="C6" s="60"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="62"/>
+      <c r="B6" s="51"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="55"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="57" t="s">
+      <c r="A7" s="50" t="s">
         <v>129</v>
       </c>
-      <c r="B7" s="58"/>
-      <c r="C7" s="60"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="62"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="55"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="57" t="s">
+      <c r="A8" s="50" t="s">
         <v>129</v>
       </c>
-      <c r="B8" s="58"/>
-      <c r="C8" s="60"/>
-      <c r="D8" s="61"/>
-      <c r="E8" s="62"/>
+      <c r="B8" s="51"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="55"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="57" t="s">
+      <c r="A9" s="50" t="s">
         <v>129</v>
       </c>
-      <c r="B9" s="58"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="62"/>
+      <c r="B9" s="51"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="55"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="57" t="s">
+      <c r="A10" s="50" t="s">
         <v>129</v>
       </c>
-      <c r="B10" s="58"/>
-      <c r="C10" s="60"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="62"/>
+      <c r="B10" s="51"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="55"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="57" t="s">
+      <c r="A11" s="50" t="s">
         <v>129</v>
       </c>
-      <c r="B11" s="58"/>
-      <c r="C11" s="60"/>
-      <c r="D11" s="61"/>
-      <c r="E11" s="62"/>
+      <c r="B11" s="51"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="55"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="57" t="s">
+      <c r="A12" s="50" t="s">
         <v>129</v>
       </c>
-      <c r="B12" s="58"/>
-      <c r="C12" s="60"/>
-      <c r="D12" s="61"/>
-      <c r="E12" s="62"/>
+      <c r="B12" s="51"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="55"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="57" t="s">
+      <c r="A13" s="50" t="s">
         <v>129</v>
       </c>
-      <c r="B13" s="58"/>
-      <c r="C13" s="60"/>
-      <c r="D13" s="61"/>
-      <c r="E13" s="62"/>
+      <c r="B13" s="51"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="55"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="57" t="s">
+      <c r="A14" s="50" t="s">
         <v>129</v>
       </c>
-      <c r="B14" s="58"/>
-      <c r="C14" s="60"/>
-      <c r="D14" s="61"/>
-      <c r="E14" s="62"/>
+      <c r="B14" s="51"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="55"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="57" t="s">
+      <c r="A15" s="50" t="s">
         <v>129</v>
       </c>
-      <c r="B15" s="58"/>
-      <c r="C15" s="60"/>
-      <c r="D15" s="61"/>
-      <c r="E15" s="62"/>
+      <c r="B15" s="51"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="55"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="57" t="s">
+      <c r="A16" s="50" t="s">
         <v>129</v>
       </c>
-      <c r="B16" s="58"/>
-      <c r="C16" s="60"/>
-      <c r="D16" s="61"/>
-      <c r="E16" s="62"/>
+      <c r="B16" s="51"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="55"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="57" t="s">
+      <c r="A17" s="50" t="s">
         <v>129</v>
       </c>
-      <c r="B17" s="58"/>
-      <c r="C17" s="60"/>
-      <c r="D17" s="61"/>
-      <c r="E17" s="62"/>
+      <c r="B17" s="51"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="55"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="57" t="s">
+      <c r="A18" s="50" t="s">
         <v>129</v>
       </c>
-      <c r="B18" s="58"/>
-      <c r="C18" s="60"/>
-      <c r="D18" s="61"/>
-      <c r="E18" s="62"/>
+      <c r="B18" s="51"/>
+      <c r="C18" s="53"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="55"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="57" t="s">
+      <c r="A19" s="50" t="s">
         <v>129</v>
       </c>
-      <c r="B19" s="58"/>
-      <c r="C19" s="60"/>
-      <c r="D19" s="61"/>
-      <c r="E19" s="62"/>
+      <c r="B19" s="51"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="55"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="57" t="s">
+      <c r="A20" s="50" t="s">
         <v>129</v>
       </c>
-      <c r="B20" s="58"/>
-      <c r="C20" s="60"/>
-      <c r="D20" s="61"/>
-      <c r="E20" s="62"/>
+      <c r="B20" s="51"/>
+      <c r="C20" s="53"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="55"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="57" t="s">
+      <c r="A21" s="50" t="s">
         <v>129</v>
       </c>
-      <c r="B21" s="58"/>
-      <c r="C21" s="60"/>
-      <c r="D21" s="61"/>
-      <c r="E21" s="62"/>
+      <c r="B21" s="51"/>
+      <c r="C21" s="53"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="55"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="57" t="s">
+      <c r="A22" s="50" t="s">
         <v>129</v>
       </c>
-      <c r="B22" s="58"/>
-      <c r="C22" s="60"/>
-      <c r="D22" s="61"/>
-      <c r="E22" s="62"/>
+      <c r="B22" s="51"/>
+      <c r="C22" s="53"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="55"/>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="57" t="s">
+      <c r="A23" s="50" t="s">
         <v>129</v>
       </c>
-      <c r="B23" s="58"/>
-      <c r="C23" s="60"/>
-      <c r="D23" s="61"/>
-      <c r="E23" s="62"/>
+      <c r="B23" s="51"/>
+      <c r="C23" s="53"/>
+      <c r="D23" s="54"/>
+      <c r="E23" s="55"/>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="57" t="s">
+      <c r="A24" s="50" t="s">
         <v>129</v>
       </c>
-      <c r="B24" s="58"/>
-      <c r="C24" s="60"/>
-      <c r="D24" s="61"/>
-      <c r="E24" s="62"/>
+      <c r="B24" s="51"/>
+      <c r="C24" s="53"/>
+      <c r="D24" s="54"/>
+      <c r="E24" s="55"/>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="57" t="s">
+      <c r="A25" s="50" t="s">
         <v>129</v>
       </c>
-      <c r="B25" s="58"/>
-      <c r="C25" s="60"/>
-      <c r="D25" s="61"/>
-      <c r="E25" s="62"/>
+      <c r="B25" s="51"/>
+      <c r="C25" s="53"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="55"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="57" t="s">
+      <c r="A26" s="50" t="s">
         <v>129</v>
       </c>
-      <c r="B26" s="58"/>
-      <c r="C26" s="60"/>
-      <c r="D26" s="59"/>
-      <c r="E26" s="57"/>
+      <c r="B26" s="51"/>
+      <c r="C26" s="53"/>
+      <c r="D26" s="52"/>
+      <c r="E26" s="50"/>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="57" t="s">
+      <c r="A27" s="50" t="s">
         <v>129</v>
       </c>
-      <c r="B27" s="58"/>
-      <c r="C27" s="60"/>
-      <c r="D27" s="59"/>
-      <c r="E27" s="57"/>
+      <c r="B27" s="51"/>
+      <c r="C27" s="53"/>
+      <c r="D27" s="52"/>
+      <c r="E27" s="50"/>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="57" t="s">
+      <c r="A28" s="50" t="s">
         <v>129</v>
       </c>
-      <c r="B28" s="58"/>
-      <c r="C28" s="60"/>
-      <c r="D28" s="59"/>
-      <c r="E28" s="57"/>
+      <c r="B28" s="51"/>
+      <c r="C28" s="53"/>
+      <c r="D28" s="52"/>
+      <c r="E28" s="50"/>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="57" t="s">
+      <c r="A29" s="50" t="s">
         <v>129</v>
       </c>
-      <c r="B29" s="58"/>
-      <c r="C29" s="60"/>
-      <c r="D29" s="61"/>
-      <c r="E29" s="62"/>
+      <c r="B29" s="51"/>
+      <c r="C29" s="53"/>
+      <c r="D29" s="54"/>
+      <c r="E29" s="55"/>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="57" t="s">
+      <c r="A30" s="50" t="s">
         <v>129</v>
       </c>
-      <c r="B30" s="58"/>
-      <c r="C30" s="60"/>
-      <c r="D30" s="59"/>
-      <c r="E30" s="57"/>
+      <c r="B30" s="51"/>
+      <c r="C30" s="53"/>
+      <c r="D30" s="52"/>
+      <c r="E30" s="50"/>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="57" t="s">
+      <c r="A31" s="50" t="s">
         <v>129</v>
       </c>
-      <c r="B31" s="58"/>
-      <c r="C31" s="60"/>
-      <c r="D31" s="61"/>
-      <c r="E31" s="62"/>
+      <c r="B31" s="51"/>
+      <c r="C31" s="53"/>
+      <c r="D31" s="54"/>
+      <c r="E31" s="55"/>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="57" t="s">
+      <c r="A32" s="50" t="s">
         <v>129</v>
       </c>
-      <c r="B32" s="58"/>
-      <c r="C32" s="60"/>
-      <c r="D32" s="59"/>
-      <c r="E32" s="57"/>
+      <c r="B32" s="51"/>
+      <c r="C32" s="53"/>
+      <c r="D32" s="52"/>
+      <c r="E32" s="50"/>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="57" t="s">
+      <c r="A33" s="50" t="s">
         <v>129</v>
       </c>
-      <c r="B33" s="58"/>
-      <c r="C33" s="60"/>
-      <c r="D33" s="61"/>
-      <c r="E33" s="62"/>
+      <c r="B33" s="51"/>
+      <c r="C33" s="53"/>
+      <c r="D33" s="54"/>
+      <c r="E33" s="55"/>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="57" t="s">
+      <c r="A34" s="50" t="s">
         <v>129</v>
       </c>
-      <c r="B34" s="58"/>
-      <c r="C34" s="60"/>
-      <c r="D34" s="61"/>
-      <c r="E34" s="57"/>
+      <c r="B34" s="51"/>
+      <c r="C34" s="53"/>
+      <c r="D34" s="54"/>
+      <c r="E34" s="50"/>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="57" t="s">
+      <c r="A35" s="50" t="s">
         <v>129</v>
       </c>
-      <c r="B35" s="58"/>
-      <c r="C35" s="60"/>
-      <c r="D35" s="59"/>
-      <c r="E35" s="57"/>
+      <c r="B35" s="51"/>
+      <c r="C35" s="53"/>
+      <c r="D35" s="52"/>
+      <c r="E35" s="50"/>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="57" t="s">
+      <c r="A36" s="50" t="s">
         <v>129</v>
       </c>
-      <c r="B36" s="58"/>
-      <c r="C36" s="60"/>
-      <c r="D36" s="61"/>
-      <c r="E36" s="62"/>
+      <c r="B36" s="51"/>
+      <c r="C36" s="53"/>
+      <c r="D36" s="54"/>
+      <c r="E36" s="55"/>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="57" t="s">
+      <c r="A37" s="50" t="s">
         <v>129</v>
       </c>
-      <c r="B37" s="58"/>
-      <c r="C37" s="60"/>
-      <c r="D37" s="61"/>
-      <c r="E37" s="57"/>
+      <c r="B37" s="51"/>
+      <c r="C37" s="53"/>
+      <c r="D37" s="54"/>
+      <c r="E37" s="50"/>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="57" t="s">
+      <c r="A38" s="50" t="s">
         <v>129</v>
       </c>
-      <c r="B38" s="58"/>
-      <c r="C38" s="60"/>
-      <c r="D38" s="59"/>
-      <c r="E38" s="57"/>
+      <c r="B38" s="51"/>
+      <c r="C38" s="53"/>
+      <c r="D38" s="52"/>
+      <c r="E38" s="50"/>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="57" t="s">
+      <c r="A39" s="50" t="s">
         <v>129</v>
       </c>
-      <c r="B39" s="58"/>
-      <c r="C39" s="60"/>
-      <c r="D39" s="61"/>
-      <c r="E39" s="62"/>
+      <c r="B39" s="51"/>
+      <c r="C39" s="53"/>
+      <c r="D39" s="54"/>
+      <c r="E39" s="55"/>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="57" t="s">
+      <c r="A40" s="50" t="s">
         <v>129</v>
       </c>
-      <c r="B40" s="58"/>
-      <c r="C40" s="60"/>
-      <c r="D40" s="59"/>
-      <c r="E40" s="57"/>
+      <c r="B40" s="51"/>
+      <c r="C40" s="53"/>
+      <c r="D40" s="52"/>
+      <c r="E40" s="50"/>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="57" t="s">
+      <c r="A41" s="50" t="s">
         <v>129</v>
       </c>
-      <c r="B41" s="58"/>
-      <c r="C41" s="60"/>
-      <c r="D41" s="59"/>
-      <c r="E41" s="57"/>
+      <c r="B41" s="51"/>
+      <c r="C41" s="53"/>
+      <c r="D41" s="52"/>
+      <c r="E41" s="50"/>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="57" t="s">
+      <c r="A42" s="50" t="s">
         <v>129</v>
       </c>
-      <c r="B42" s="58"/>
-      <c r="C42" s="60"/>
-      <c r="D42" s="59"/>
-      <c r="E42" s="57"/>
+      <c r="B42" s="51"/>
+      <c r="C42" s="53"/>
+      <c r="D42" s="52"/>
+      <c r="E42" s="50"/>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="57" t="s">
+      <c r="A43" s="50" t="s">
         <v>129</v>
       </c>
-      <c r="B43" s="58"/>
-      <c r="C43" s="60"/>
-      <c r="D43" s="59"/>
-      <c r="E43" s="57"/>
+      <c r="B43" s="51"/>
+      <c r="C43" s="53"/>
+      <c r="D43" s="52"/>
+      <c r="E43" s="50"/>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="57" t="s">
+      <c r="A44" s="50" t="s">
         <v>129</v>
       </c>
-      <c r="B44" s="58"/>
-      <c r="C44" s="60"/>
-      <c r="D44" s="59"/>
-      <c r="E44" s="57"/>
+      <c r="B44" s="51"/>
+      <c r="C44" s="53"/>
+      <c r="D44" s="52"/>
+      <c r="E44" s="50"/>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="57" t="s">
+      <c r="A45" s="50" t="s">
         <v>129</v>
       </c>
-      <c r="B45" s="58"/>
-      <c r="C45" s="60"/>
-      <c r="D45" s="59"/>
-      <c r="E45" s="57"/>
+      <c r="B45" s="51"/>
+      <c r="C45" s="53"/>
+      <c r="D45" s="52"/>
+      <c r="E45" s="50"/>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="57" t="s">
+      <c r="A46" s="50" t="s">
         <v>129</v>
       </c>
-      <c r="B46" s="58"/>
-      <c r="C46" s="60"/>
-      <c r="D46" s="59"/>
-      <c r="E46" s="57"/>
+      <c r="B46" s="51"/>
+      <c r="C46" s="53"/>
+      <c r="D46" s="52"/>
+      <c r="E46" s="50"/>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="57" t="s">
+      <c r="A47" s="50" t="s">
         <v>129</v>
       </c>
-      <c r="B47" s="58"/>
-      <c r="C47" s="60"/>
-      <c r="D47" s="59"/>
-      <c r="E47" s="57"/>
+      <c r="B47" s="51"/>
+      <c r="C47" s="53"/>
+      <c r="D47" s="52"/>
+      <c r="E47" s="50"/>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="57" t="s">
+      <c r="A48" s="50" t="s">
         <v>129</v>
       </c>
-      <c r="B48" s="58"/>
-      <c r="C48" s="60"/>
-      <c r="D48" s="59"/>
-      <c r="E48" s="57"/>
+      <c r="B48" s="51"/>
+      <c r="C48" s="53"/>
+      <c r="D48" s="52"/>
+      <c r="E48" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5265,11 +5290,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:J30"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
@@ -5364,10 +5389,10 @@
       </c>
     </row>
     <row r="6" spans="2:10" ht="18" customHeight="1">
-      <c r="B6" s="46" t="s">
+      <c r="B6" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="46"/>
+      <c r="C6" s="77"/>
       <c r="D6" s="9" t="s">
         <v>25</v>
       </c>
@@ -5389,10 +5414,10 @@
       </c>
     </row>
     <row r="7" spans="2:10" ht="18" customHeight="1">
-      <c r="B7" s="45" t="s">
+      <c r="B7" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="45"/>
+      <c r="C7" s="76"/>
       <c r="D7" s="9" t="s">
         <v>26</v>
       </c>
@@ -5412,10 +5437,10 @@
       </c>
     </row>
     <row r="8" spans="2:10" ht="18" customHeight="1">
-      <c r="B8" s="45" t="s">
+      <c r="B8" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="45"/>
+      <c r="C8" s="76"/>
       <c r="D8" s="9" t="s">
         <v>27</v>
       </c>
@@ -5437,10 +5462,10 @@
       </c>
     </row>
     <row r="9" spans="2:10" ht="18" customHeight="1">
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="81" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="51"/>
+      <c r="C9" s="82"/>
       <c r="D9" s="9" t="s">
         <v>84</v>
       </c>
@@ -5560,10 +5585,10 @@
       </c>
     </row>
     <row r="14" spans="2:10" ht="18" customHeight="1">
-      <c r="B14" s="47" t="s">
+      <c r="B14" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="48"/>
+      <c r="C14" s="79"/>
       <c r="D14" s="9" t="s">
         <v>85</v>
       </c>
@@ -5727,10 +5752,10 @@
       </c>
     </row>
     <row r="21" spans="2:10" ht="18" customHeight="1">
-      <c r="B21" s="47" t="s">
+      <c r="B21" s="78" t="s">
         <v>82</v>
       </c>
-      <c r="C21" s="49"/>
+      <c r="C21" s="80"/>
       <c r="D21" s="9" t="s">
         <v>86</v>
       </c>
@@ -5977,11 +6002,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:O32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
@@ -6032,11 +6057,11 @@
       <c r="G4" s="4"/>
     </row>
     <row r="5" spans="2:7">
-      <c r="B5" s="73" t="s">
+      <c r="B5" s="86" t="s">
         <v>133</v>
       </c>
-      <c r="C5" s="74"/>
-      <c r="D5" s="75"/>
+      <c r="C5" s="87"/>
+      <c r="D5" s="88"/>
       <c r="E5" s="33" t="s">
         <v>139</v>
       </c>
@@ -6048,12 +6073,12 @@
       </c>
     </row>
     <row r="6" spans="2:7" ht="18" customHeight="1">
-      <c r="B6" s="76" t="s">
+      <c r="B6" s="89" t="s">
         <v>153</v>
       </c>
-      <c r="C6" s="77"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="68" t="s">
+      <c r="C6" s="90"/>
+      <c r="D6" s="91"/>
+      <c r="E6" s="58" t="s">
         <v>155</v>
       </c>
       <c r="F6" s="10" t="s">
@@ -6062,27 +6087,27 @@
       <c r="G6" s="10"/>
     </row>
     <row r="7" spans="2:7" ht="18" customHeight="1">
-      <c r="B7" s="80"/>
-      <c r="C7" s="71" t="s">
+      <c r="B7" s="63"/>
+      <c r="C7" s="85" t="s">
         <v>151</v>
       </c>
-      <c r="D7" s="49"/>
+      <c r="D7" s="80"/>
       <c r="E7" s="9" t="s">
         <v>142</v>
       </c>
       <c r="F7" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="91" t="s">
+      <c r="G7" s="72" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="18" customHeight="1">
-      <c r="B8" s="79"/>
-      <c r="C8" s="84" t="s">
+      <c r="B8" s="62"/>
+      <c r="C8" s="83" t="s">
         <v>154</v>
       </c>
-      <c r="D8" s="85"/>
+      <c r="D8" s="84"/>
       <c r="E8" s="9" t="s">
         <v>140</v>
       </c>
@@ -6092,8 +6117,8 @@
       <c r="G8" s="10"/>
     </row>
     <row r="9" spans="2:7" ht="18" customHeight="1">
-      <c r="B9" s="80"/>
-      <c r="C9" s="86"/>
+      <c r="B9" s="63"/>
+      <c r="C9" s="67"/>
       <c r="D9" s="20" t="s">
         <v>152</v>
       </c>
@@ -6106,11 +6131,11 @@
       <c r="G9" s="10"/>
     </row>
     <row r="10" spans="2:7" ht="18" customHeight="1">
-      <c r="B10" s="81"/>
-      <c r="C10" s="84" t="s">
+      <c r="B10" s="64"/>
+      <c r="C10" s="83" t="s">
         <v>154</v>
       </c>
-      <c r="D10" s="85"/>
+      <c r="D10" s="84"/>
       <c r="E10" s="9" t="s">
         <v>136</v>
       </c>
@@ -6120,8 +6145,8 @@
       <c r="G10" s="10"/>
     </row>
     <row r="11" spans="2:7" ht="18" customHeight="1">
-      <c r="B11" s="82"/>
-      <c r="C11" s="86"/>
+      <c r="B11" s="65"/>
+      <c r="C11" s="67"/>
       <c r="D11" s="20" t="s">
         <v>152</v>
       </c>
@@ -6134,11 +6159,11 @@
       <c r="G11" s="10"/>
     </row>
     <row r="12" spans="2:7" ht="18" customHeight="1">
-      <c r="B12" s="81"/>
-      <c r="C12" s="84" t="s">
+      <c r="B12" s="64"/>
+      <c r="C12" s="83" t="s">
         <v>154</v>
       </c>
-      <c r="D12" s="85"/>
+      <c r="D12" s="84"/>
       <c r="E12" s="9" t="s">
         <v>143</v>
       </c>
@@ -6148,8 +6173,8 @@
       <c r="G12" s="10"/>
     </row>
     <row r="13" spans="2:7" ht="18" customHeight="1">
-      <c r="B13" s="82"/>
-      <c r="C13" s="86"/>
+      <c r="B13" s="65"/>
+      <c r="C13" s="67"/>
       <c r="D13" s="20" t="s">
         <v>152</v>
       </c>
@@ -6162,11 +6187,11 @@
       <c r="G13" s="10"/>
     </row>
     <row r="14" spans="2:7" ht="18" customHeight="1">
-      <c r="B14" s="79"/>
-      <c r="C14" s="84" t="s">
+      <c r="B14" s="62"/>
+      <c r="C14" s="83" t="s">
         <v>154</v>
       </c>
-      <c r="D14" s="85"/>
+      <c r="D14" s="84"/>
       <c r="E14" s="9" t="s">
         <v>137</v>
       </c>
@@ -6176,8 +6201,8 @@
       <c r="G14" s="10"/>
     </row>
     <row r="15" spans="2:7" ht="18" customHeight="1">
-      <c r="B15" s="80"/>
-      <c r="C15" s="86"/>
+      <c r="B15" s="63"/>
+      <c r="C15" s="67"/>
       <c r="D15" s="20" t="s">
         <v>152</v>
       </c>
@@ -6190,11 +6215,11 @@
       <c r="G15" s="10"/>
     </row>
     <row r="16" spans="2:7" ht="18" customHeight="1">
-      <c r="B16" s="81"/>
-      <c r="C16" s="84" t="s">
+      <c r="B16" s="64"/>
+      <c r="C16" s="83" t="s">
         <v>154</v>
       </c>
-      <c r="D16" s="85"/>
+      <c r="D16" s="84"/>
       <c r="E16" s="9" t="s">
         <v>144</v>
       </c>
@@ -6204,8 +6229,8 @@
       <c r="G16" s="10"/>
     </row>
     <row r="17" spans="2:15" ht="18" customHeight="1">
-      <c r="B17" s="82"/>
-      <c r="C17" s="86"/>
+      <c r="B17" s="65"/>
+      <c r="C17" s="67"/>
       <c r="D17" s="20" t="s">
         <v>152</v>
       </c>
@@ -6218,11 +6243,11 @@
       <c r="G17" s="10"/>
     </row>
     <row r="18" spans="2:15" ht="18" customHeight="1">
-      <c r="B18" s="81"/>
-      <c r="C18" s="84" t="s">
+      <c r="B18" s="64"/>
+      <c r="C18" s="83" t="s">
         <v>154</v>
       </c>
-      <c r="D18" s="85"/>
+      <c r="D18" s="84"/>
       <c r="E18" s="9" t="s">
         <v>145</v>
       </c>
@@ -6232,8 +6257,8 @@
       <c r="G18" s="10"/>
     </row>
     <row r="19" spans="2:15" ht="18" customHeight="1">
-      <c r="B19" s="82"/>
-      <c r="C19" s="86"/>
+      <c r="B19" s="65"/>
+      <c r="C19" s="67"/>
       <c r="D19" s="20" t="s">
         <v>152</v>
       </c>
@@ -6246,11 +6271,11 @@
       <c r="G19" s="10"/>
     </row>
     <row r="20" spans="2:15" ht="18" customHeight="1">
-      <c r="B20" s="81"/>
-      <c r="C20" s="84" t="s">
+      <c r="B20" s="64"/>
+      <c r="C20" s="83" t="s">
         <v>154</v>
       </c>
-      <c r="D20" s="85"/>
+      <c r="D20" s="84"/>
       <c r="E20" s="9" t="s">
         <v>138</v>
       </c>
@@ -6260,8 +6285,8 @@
       <c r="G20" s="10"/>
     </row>
     <row r="21" spans="2:15" ht="18" customHeight="1">
-      <c r="B21" s="82"/>
-      <c r="C21" s="86"/>
+      <c r="B21" s="65"/>
+      <c r="C21" s="67"/>
       <c r="D21" s="20" t="s">
         <v>152</v>
       </c>
@@ -6274,11 +6299,11 @@
       <c r="G21" s="10"/>
     </row>
     <row r="22" spans="2:15" ht="18" customHeight="1">
-      <c r="B22" s="81"/>
-      <c r="C22" s="84" t="s">
+      <c r="B22" s="64"/>
+      <c r="C22" s="83" t="s">
         <v>154</v>
       </c>
-      <c r="D22" s="85"/>
+      <c r="D22" s="84"/>
       <c r="E22" s="9" t="s">
         <v>146</v>
       </c>
@@ -6288,8 +6313,8 @@
       <c r="G22" s="10"/>
     </row>
     <row r="23" spans="2:15" ht="18" customHeight="1">
-      <c r="B23" s="82"/>
-      <c r="C23" s="86"/>
+      <c r="B23" s="65"/>
+      <c r="C23" s="67"/>
       <c r="D23" s="20" t="s">
         <v>152</v>
       </c>
@@ -6302,11 +6327,11 @@
       <c r="G23" s="10"/>
     </row>
     <row r="24" spans="2:15" ht="18" customHeight="1">
-      <c r="B24" s="81"/>
-      <c r="C24" s="84" t="s">
+      <c r="B24" s="64"/>
+      <c r="C24" s="83" t="s">
         <v>154</v>
       </c>
-      <c r="D24" s="85"/>
+      <c r="D24" s="84"/>
       <c r="E24" s="9" t="s">
         <v>147</v>
       </c>
@@ -6316,8 +6341,8 @@
       <c r="G24" s="10"/>
     </row>
     <row r="25" spans="2:15" ht="18" customHeight="1">
-      <c r="B25" s="83"/>
-      <c r="C25" s="90"/>
+      <c r="B25" s="66"/>
+      <c r="C25" s="71"/>
       <c r="D25" s="41" t="s">
         <v>152</v>
       </c>
@@ -6330,104 +6355,104 @@
       <c r="G25" s="10"/>
     </row>
     <row r="26" spans="2:15">
-      <c r="B26" s="70"/>
-      <c r="C26" s="70"/>
-      <c r="D26" s="69"/>
-      <c r="E26" s="88"/>
-      <c r="F26" s="89"/>
-      <c r="G26" s="89"/>
-      <c r="H26" s="70"/>
-      <c r="I26" s="70"/>
-      <c r="J26" s="70"/>
-      <c r="K26" s="70"/>
-      <c r="L26" s="70"/>
-      <c r="M26" s="70"/>
-      <c r="N26" s="70"/>
-      <c r="O26" s="70"/>
+      <c r="B26" s="60"/>
+      <c r="C26" s="60"/>
+      <c r="D26" s="59"/>
+      <c r="E26" s="69"/>
+      <c r="F26" s="70"/>
+      <c r="G26" s="70"/>
+      <c r="H26" s="60"/>
+      <c r="I26" s="60"/>
+      <c r="J26" s="60"/>
+      <c r="K26" s="60"/>
+      <c r="L26" s="60"/>
+      <c r="M26" s="60"/>
+      <c r="N26" s="60"/>
+      <c r="O26" s="60"/>
     </row>
     <row r="27" spans="2:15">
-      <c r="B27" s="70"/>
-      <c r="C27" s="70"/>
-      <c r="D27" s="69"/>
-      <c r="E27" s="88"/>
-      <c r="F27" s="89"/>
-      <c r="G27" s="89"/>
-      <c r="H27" s="70"/>
-      <c r="I27" s="70"/>
-      <c r="J27" s="70"/>
-      <c r="K27" s="70"/>
-      <c r="L27" s="70"/>
-      <c r="M27" s="70"/>
-      <c r="N27" s="70"/>
-      <c r="O27" s="70"/>
+      <c r="B27" s="60"/>
+      <c r="C27" s="60"/>
+      <c r="D27" s="59"/>
+      <c r="E27" s="69"/>
+      <c r="F27" s="70"/>
+      <c r="G27" s="70"/>
+      <c r="H27" s="60"/>
+      <c r="I27" s="60"/>
+      <c r="J27" s="60"/>
+      <c r="K27" s="60"/>
+      <c r="L27" s="60"/>
+      <c r="M27" s="60"/>
+      <c r="N27" s="60"/>
+      <c r="O27" s="60"/>
     </row>
     <row r="28" spans="2:15">
-      <c r="B28" s="70"/>
-      <c r="C28" s="70"/>
-      <c r="D28" s="69"/>
-      <c r="E28" s="88"/>
-      <c r="F28" s="89"/>
-      <c r="G28" s="89"/>
-      <c r="H28" s="70"/>
-      <c r="I28" s="70"/>
-      <c r="J28" s="70"/>
-      <c r="K28" s="70"/>
-      <c r="L28" s="70"/>
-      <c r="M28" s="70"/>
-      <c r="N28" s="70"/>
-      <c r="O28" s="70"/>
+      <c r="B28" s="60"/>
+      <c r="C28" s="60"/>
+      <c r="D28" s="59"/>
+      <c r="E28" s="69"/>
+      <c r="F28" s="70"/>
+      <c r="G28" s="70"/>
+      <c r="H28" s="60"/>
+      <c r="I28" s="60"/>
+      <c r="J28" s="60"/>
+      <c r="K28" s="60"/>
+      <c r="L28" s="60"/>
+      <c r="M28" s="60"/>
+      <c r="N28" s="60"/>
+      <c r="O28" s="60"/>
     </row>
     <row r="29" spans="2:15">
-      <c r="B29" s="70"/>
-      <c r="C29" s="70"/>
-      <c r="D29" s="69"/>
-      <c r="E29" s="88"/>
-      <c r="F29" s="89"/>
-      <c r="G29" s="89"/>
-      <c r="H29" s="70"/>
-      <c r="I29" s="70"/>
-      <c r="J29" s="70"/>
-      <c r="K29" s="70"/>
-      <c r="L29" s="70"/>
-      <c r="M29" s="70"/>
-      <c r="N29" s="70"/>
-      <c r="O29" s="70"/>
+      <c r="B29" s="60"/>
+      <c r="C29" s="60"/>
+      <c r="D29" s="59"/>
+      <c r="E29" s="69"/>
+      <c r="F29" s="70"/>
+      <c r="G29" s="70"/>
+      <c r="H29" s="60"/>
+      <c r="I29" s="60"/>
+      <c r="J29" s="60"/>
+      <c r="K29" s="60"/>
+      <c r="L29" s="60"/>
+      <c r="M29" s="60"/>
+      <c r="N29" s="60"/>
+      <c r="O29" s="60"/>
     </row>
     <row r="30" spans="2:15">
-      <c r="B30" s="70"/>
-      <c r="C30" s="70"/>
-      <c r="D30" s="70"/>
-      <c r="E30" s="87"/>
-      <c r="F30" s="89"/>
-      <c r="G30" s="89"/>
-      <c r="H30" s="70"/>
-      <c r="I30" s="70"/>
-      <c r="J30" s="70"/>
-      <c r="K30" s="70"/>
-      <c r="L30" s="70"/>
-      <c r="M30" s="70"/>
-      <c r="N30" s="70"/>
-      <c r="O30" s="70"/>
+      <c r="B30" s="60"/>
+      <c r="C30" s="60"/>
+      <c r="D30" s="60"/>
+      <c r="E30" s="68"/>
+      <c r="F30" s="70"/>
+      <c r="G30" s="70"/>
+      <c r="H30" s="60"/>
+      <c r="I30" s="60"/>
+      <c r="J30" s="60"/>
+      <c r="K30" s="60"/>
+      <c r="L30" s="60"/>
+      <c r="M30" s="60"/>
+      <c r="N30" s="60"/>
+      <c r="O30" s="60"/>
     </row>
     <row r="31" spans="2:15">
-      <c r="D31" s="70"/>
-      <c r="E31" s="87"/>
-      <c r="F31" s="72"/>
-      <c r="G31" s="72"/>
-      <c r="H31" s="70"/>
-      <c r="I31" s="70"/>
-      <c r="J31" s="70"/>
-      <c r="K31" s="70"/>
-      <c r="L31" s="70"/>
-      <c r="M31" s="70"/>
-      <c r="N31" s="70"/>
-      <c r="O31" s="70"/>
+      <c r="D31" s="60"/>
+      <c r="E31" s="68"/>
+      <c r="F31" s="61"/>
+      <c r="G31" s="61"/>
+      <c r="H31" s="60"/>
+      <c r="I31" s="60"/>
+      <c r="J31" s="60"/>
+      <c r="K31" s="60"/>
+      <c r="L31" s="60"/>
+      <c r="M31" s="60"/>
+      <c r="N31" s="60"/>
+      <c r="O31" s="60"/>
     </row>
     <row r="32" spans="2:15">
-      <c r="D32" s="70"/>
-      <c r="E32" s="87"/>
-      <c r="F32" s="72"/>
-      <c r="G32" s="72"/>
+      <c r="D32" s="60"/>
+      <c r="E32" s="68"/>
+      <c r="F32" s="61"/>
+      <c r="G32" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="12">
